--- a/идеальная последовательность (1).xlsx
+++ b/идеальная последовательность (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-8ab26a2496a320fcced4bfe6d49b9a644492df4f\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_prod-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8A71AA-3AC0-49DB-9435-B6408E3ABAB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C5714-0C75-4D73-8926-C57BBB962493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>ФИО</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Фамилия И.О. зав кафедры</t>
   </si>
   <si>
-    <t>ФИО науч рук</t>
-  </si>
-  <si>
     <t>Владелец ФИО</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>доцент</t>
   </si>
   <si>
-    <t>профессор</t>
-  </si>
-  <si>
     <t>ФормаОбученияРП</t>
   </si>
   <si>
@@ -263,6 +257,15 @@
   </si>
   <si>
     <t>01.01.2001</t>
+  </si>
+  <si>
+    <t>ФИОНаучРук</t>
+  </si>
+  <si>
+    <t>к.э.н.</t>
+  </si>
+  <si>
+    <t>СтепеньНаучРук</t>
   </si>
 </sst>
 </file>
@@ -378,12 +381,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,6 +393,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,14 +736,14 @@
     <col min="26" max="27" width="25" style="4" customWidth="1"/>
     <col min="28" max="28" width="26.42578125" style="4" customWidth="1"/>
     <col min="29" max="29" width="28.140625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="30" style="4" customWidth="1"/>
     <col min="31" max="31" width="15" style="4" customWidth="1"/>
     <col min="32" max="32" width="20.42578125" style="4" customWidth="1"/>
     <col min="33" max="35" width="34.42578125" style="4" customWidth="1"/>
     <col min="36" max="36" width="29" style="4" customWidth="1"/>
     <col min="37" max="37" width="32.28515625" style="4" customWidth="1"/>
     <col min="38" max="38" width="31.42578125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="19" style="4" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" style="4" customWidth="1"/>
     <col min="40" max="40" width="18" style="4" customWidth="1"/>
     <col min="41" max="41" width="25" style="4" customWidth="1"/>
     <col min="42" max="42" width="26.140625" style="4" customWidth="1"/>
@@ -753,7 +756,7 @@
     <col min="49" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -776,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -790,8 +793,8 @@
       <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>36</v>
+      <c r="M1" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>31</v>
@@ -824,7 +827,7 @@
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>17</v>
@@ -833,10 +836,10 @@
         <v>27</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>18</v>
@@ -848,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>22</v>
@@ -857,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>28</v>
@@ -872,7 +875,7 @@
         <v>21</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>29</v>
@@ -881,33 +884,36 @@
         <v>23</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="4">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I2" s="4">
         <v>2025</v>
@@ -915,107 +921,107 @@
       <c r="J2" s="4">
         <v>79325563981</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="W2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="AB2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="AD2" s="4">
         <v>123</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AG2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="AH2" s="4">
         <v>123</v>
       </c>
       <c r="AI2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -1025,7 +1031,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1035,7 +1041,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -1044,13 +1050,17 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="8"/>
-      <c r="AO5" s="8"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="12"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -1059,8 +1069,14 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1069,8 +1085,14 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -1079,8 +1101,14 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1089,9 +1117,14 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AK9" s="8"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1100,8 +1133,14 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1111,7 +1150,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1121,7 +1160,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1131,7 +1170,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -1141,7 +1180,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -1151,7 +1190,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
